--- a/smiles2peptides/project/core/amino_acids_library.xlsx
+++ b/smiles2peptides/project/core/amino_acids_library.xlsx
@@ -5422,7 +5422,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5439,6 +5439,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF4472c4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -5519,11 +5525,11 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5875,7 +5881,7 @@
     <col min="11" max="11" style="20" width="16.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" hidden="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5910,7 +5916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" hidden="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5939,7 +5945,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" hidden="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5968,7 +5974,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" hidden="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -5997,7 +6003,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" hidden="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -6026,7 +6032,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" hidden="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -6055,7 +6061,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" hidden="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -6084,7 +6090,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" hidden="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -6113,7 +6119,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" hidden="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -6142,7 +6148,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" hidden="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -6171,7 +6177,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" hidden="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -6200,7 +6206,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" hidden="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -6229,7 +6235,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" hidden="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -6258,7 +6264,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" hidden="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -6287,7 +6293,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" hidden="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -6316,7 +6322,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" hidden="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -6345,7 +6351,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" hidden="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -6374,7 +6380,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" hidden="1">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -6403,7 +6409,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" hidden="1">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -6432,7 +6438,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" hidden="1">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -6461,7 +6467,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" hidden="1">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -6490,7 +6496,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" hidden="1">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -6519,7 +6525,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" hidden="1">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -6548,7 +6554,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" hidden="1">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -6577,7 +6583,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" hidden="1">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -6606,7 +6612,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" hidden="1">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -6635,7 +6641,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" hidden="1">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -6664,7 +6670,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" hidden="1">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -6693,7 +6699,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" hidden="1">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -6722,7 +6728,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" hidden="1">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -6751,7 +6757,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" hidden="1">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -6780,7 +6786,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" hidden="1">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -6809,7 +6815,7 @@
       <c r="J32" s="10"/>
       <c r="K32" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" hidden="1">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -6838,7 +6844,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" hidden="1">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -6867,7 +6873,7 @@
       <c r="J34" s="10"/>
       <c r="K34" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" hidden="1">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -6896,7 +6902,7 @@
       <c r="J35" s="10"/>
       <c r="K35" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" hidden="1">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -6925,7 +6931,7 @@
       <c r="J36" s="10"/>
       <c r="K36" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" hidden="1">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -6954,7 +6960,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" hidden="1">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -6983,7 +6989,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" hidden="1">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -7012,7 +7018,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" hidden="1">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -7041,7 +7047,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" hidden="1">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -7070,7 +7076,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" hidden="1">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -7099,7 +7105,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" hidden="1">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -7128,7 +7134,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" hidden="1">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -7157,7 +7163,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" hidden="1">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -7186,7 +7192,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" hidden="1">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -7215,7 +7221,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" hidden="1">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -7244,7 +7250,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" hidden="1">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -7273,7 +7279,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" hidden="1">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -7302,7 +7308,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" hidden="1">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -7331,7 +7337,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="33">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -7358,7 +7364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="33">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -7385,7 +7391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="33">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -7412,7 +7418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="33">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -7439,7 +7445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="33">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -7520,7 +7526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" hidden="1">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -7553,7 +7559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" hidden="1">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -7586,7 +7592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" hidden="1">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -7619,7 +7625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" hidden="1">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -7652,7 +7658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -7685,7 +7691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" hidden="1">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -7718,7 +7724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" hidden="1">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -7751,7 +7757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" hidden="1">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -7784,7 +7790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" hidden="1">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -7813,7 +7819,7 @@
       <c r="J66" s="10"/>
       <c r="K66" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="104.25">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" hidden="1">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -7842,7 +7848,7 @@
       <c r="J67" s="10"/>
       <c r="K67" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" hidden="1">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -7871,7 +7877,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" hidden="1">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -7900,7 +7906,7 @@
       <c r="J69" s="10"/>
       <c r="K69" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" hidden="1">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -7929,7 +7935,7 @@
       <c r="J70" s="10"/>
       <c r="K70" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" hidden="1">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -7958,7 +7964,7 @@
       <c r="J71" s="10"/>
       <c r="K71" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" hidden="1">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -7987,7 +7993,7 @@
       <c r="J72" s="10"/>
       <c r="K72" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" hidden="1">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -8016,7 +8022,7 @@
       <c r="J73" s="10"/>
       <c r="K73" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" hidden="1">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -8045,7 +8051,7 @@
       <c r="J74" s="10"/>
       <c r="K74" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" hidden="1">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -8074,7 +8080,7 @@
       <c r="J75" s="10"/>
       <c r="K75" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" hidden="1">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -8103,7 +8109,7 @@
       <c r="J76" s="10"/>
       <c r="K76" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" hidden="1">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -8132,7 +8138,7 @@
       <c r="J77" s="10"/>
       <c r="K77" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" hidden="1">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -8161,7 +8167,7 @@
       <c r="J78" s="10"/>
       <c r="K78" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" hidden="1">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -8190,7 +8196,7 @@
       <c r="J79" s="10"/>
       <c r="K79" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" hidden="1">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -8219,7 +8225,7 @@
       <c r="J80" s="10"/>
       <c r="K80" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" hidden="1">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -8248,7 +8254,7 @@
       <c r="J81" s="10"/>
       <c r="K81" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" hidden="1">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -8304,7 +8310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" hidden="1">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -8333,7 +8339,7 @@
       <c r="J84" s="10"/>
       <c r="K84" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" hidden="1">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -8362,7 +8368,7 @@
       <c r="J85" s="10"/>
       <c r="K85" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" hidden="1">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -8391,7 +8397,7 @@
       <c r="J86" s="10"/>
       <c r="K86" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" hidden="1">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -8420,7 +8426,7 @@
       <c r="J87" s="10"/>
       <c r="K87" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" hidden="1">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -8449,7 +8455,7 @@
       <c r="J88" s="10"/>
       <c r="K88" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" hidden="1">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -8478,7 +8484,7 @@
       <c r="J89" s="10"/>
       <c r="K89" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" hidden="1">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -8507,7 +8513,7 @@
       <c r="J90" s="10"/>
       <c r="K90" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" hidden="1">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -8536,7 +8542,7 @@
       <c r="J91" s="10"/>
       <c r="K91" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" hidden="1">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -8565,7 +8571,7 @@
       <c r="J92" s="10"/>
       <c r="K92" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" hidden="1">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -8594,7 +8600,7 @@
       <c r="J93" s="10"/>
       <c r="K93" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="102.75">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" hidden="1">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -8623,7 +8629,7 @@
       <c r="J94" s="10"/>
       <c r="K94" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="136">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" hidden="1">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -8677,11 +8683,9 @@
         <v>17</v>
       </c>
       <c r="J96" s="10"/>
-      <c r="K96" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="117.75">
+      <c r="K96" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" hidden="1">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -8710,7 +8714,7 @@
       <c r="J97" s="10"/>
       <c r="K97" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="94.5">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" hidden="1">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -8739,7 +8743,7 @@
       <c r="J98" s="10"/>
       <c r="K98" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="94.5">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" hidden="1">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -8768,7 +8772,7 @@
       <c r="J99" s="10"/>
       <c r="K99" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="94.5">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" hidden="1">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -8797,7 +8801,7 @@
       <c r="J100" s="10"/>
       <c r="K100" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="94.5">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" hidden="1">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -8826,7 +8830,7 @@
       <c r="J101" s="10"/>
       <c r="K101" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="94.5">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" hidden="1">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -8855,7 +8859,7 @@
       <c r="J102" s="10"/>
       <c r="K102" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="94.5">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" hidden="1">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -8884,7 +8888,7 @@
       <c r="J103" s="10"/>
       <c r="K103" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="94.5">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" hidden="1">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -8913,7 +8917,7 @@
       <c r="J104" s="10"/>
       <c r="K104" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="94.5">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" hidden="1">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -8942,7 +8946,7 @@
       <c r="J105" s="10"/>
       <c r="K105" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" hidden="1">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -8973,7 +8977,7 @@
       <c r="J106" s="10"/>
       <c r="K106" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" hidden="1">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -9004,7 +9008,7 @@
       <c r="J107" s="10"/>
       <c r="K107" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" hidden="1">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -9035,7 +9039,7 @@
       <c r="J108" s="10"/>
       <c r="K108" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" hidden="1">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -9066,7 +9070,7 @@
       <c r="J109" s="10"/>
       <c r="K109" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" hidden="1">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -9097,7 +9101,7 @@
       <c r="J110" s="10"/>
       <c r="K110" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" hidden="1">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -9128,7 +9132,7 @@
       <c r="J111" s="10"/>
       <c r="K111" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" hidden="1">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -9159,7 +9163,7 @@
       <c r="J112" s="10"/>
       <c r="K112" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" hidden="1">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -9190,7 +9194,7 @@
       <c r="J113" s="14"/>
       <c r="K113" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" hidden="1">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -9221,7 +9225,7 @@
       <c r="J114" s="10"/>
       <c r="K114" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" hidden="1">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -9252,7 +9256,7 @@
       <c r="J115" s="10"/>
       <c r="K115" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" hidden="1">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -9283,7 +9287,7 @@
       <c r="J116" s="10"/>
       <c r="K116" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" hidden="1">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -9314,7 +9318,7 @@
       <c r="J117" s="10"/>
       <c r="K117" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" hidden="1">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -9345,7 +9349,7 @@
       <c r="J118" s="10"/>
       <c r="K118" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" hidden="1">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -9376,7 +9380,7 @@
       <c r="J119" s="10"/>
       <c r="K119" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" hidden="1">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -9407,7 +9411,7 @@
       <c r="J120" s="10"/>
       <c r="K120" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" hidden="1">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -9438,7 +9442,7 @@
       <c r="J121" s="10"/>
       <c r="K121" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" hidden="1">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -9469,7 +9473,7 @@
       <c r="J122" s="10"/>
       <c r="K122" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" hidden="1">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -9502,7 +9506,7 @@
       </c>
       <c r="K123" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" hidden="1">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -9533,7 +9537,7 @@
       <c r="J124" s="10"/>
       <c r="K124" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" hidden="1">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -9566,7 +9570,7 @@
       </c>
       <c r="K125" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" hidden="1">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -9601,7 +9605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" hidden="1">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -9636,7 +9640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" hidden="1">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -9667,7 +9671,7 @@
       <c r="J128" s="10"/>
       <c r="K128" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" hidden="1">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -9700,7 +9704,7 @@
       </c>
       <c r="K129" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" hidden="1">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -9735,7 +9739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" hidden="1">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
@@ -9748,7 +9752,7 @@
       <c r="J131" s="10"/>
       <c r="K131" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" hidden="1">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
@@ -9761,7 +9765,7 @@
       <c r="J132" s="10"/>
       <c r="K132" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" hidden="1">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
@@ -9774,7 +9778,7 @@
       <c r="J133" s="10"/>
       <c r="K133" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" hidden="1">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
@@ -9787,7 +9791,7 @@
       <c r="J134" s="10"/>
       <c r="K134" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" hidden="1">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
@@ -9800,7 +9804,7 @@
       <c r="J135" s="10"/>
       <c r="K135" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" hidden="1">
       <c r="A136" s="5"/>
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
@@ -9813,7 +9817,7 @@
       <c r="J136" s="10"/>
       <c r="K136" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" hidden="1">
       <c r="A137" s="5"/>
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
@@ -9826,7 +9830,7 @@
       <c r="J137" s="10"/>
       <c r="K137" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" hidden="1">
       <c r="A138" s="5"/>
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
@@ -9839,7 +9843,7 @@
       <c r="J138" s="10"/>
       <c r="K138" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" hidden="1">
       <c r="A139" s="5"/>
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
@@ -9852,7 +9856,7 @@
       <c r="J139" s="10"/>
       <c r="K139" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" hidden="1">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
@@ -9865,7 +9869,7 @@
       <c r="J140" s="10"/>
       <c r="K140" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" hidden="1">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
@@ -9878,7 +9882,7 @@
       <c r="J141" s="10"/>
       <c r="K141" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" hidden="1">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
@@ -9891,7 +9895,7 @@
       <c r="J142" s="10"/>
       <c r="K142" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" hidden="1">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
@@ -9904,7 +9908,7 @@
       <c r="J143" s="10"/>
       <c r="K143" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" hidden="1">
       <c r="A144" s="5"/>
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
@@ -9917,7 +9921,7 @@
       <c r="J144" s="10"/>
       <c r="K144" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" hidden="1">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
       <c r="C145" s="7"/>
@@ -9930,7 +9934,7 @@
       <c r="J145" s="10"/>
       <c r="K145" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" hidden="1">
       <c r="A146" s="5"/>
       <c r="B146" s="6"/>
       <c r="C146" s="7"/>
@@ -9943,7 +9947,7 @@
       <c r="J146" s="10"/>
       <c r="K146" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" hidden="1">
       <c r="A147" s="5"/>
       <c r="B147" s="6"/>
       <c r="C147" s="7"/>
@@ -9956,7 +9960,7 @@
       <c r="J147" s="10"/>
       <c r="K147" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" hidden="1">
       <c r="A148" s="5"/>
       <c r="B148" s="6"/>
       <c r="C148" s="7"/>
@@ -9969,7 +9973,7 @@
       <c r="J148" s="10"/>
       <c r="K148" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" hidden="1">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
       <c r="C149" s="7"/>
@@ -9982,7 +9986,7 @@
       <c r="J149" s="10"/>
       <c r="K149" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" hidden="1">
       <c r="A150" s="5"/>
       <c r="B150" s="6"/>
       <c r="C150" s="7"/>

--- a/smiles2peptides/project/core/amino_acids_library.xlsx
+++ b/smiles2peptides/project/core/amino_acids_library.xlsx
@@ -5444,7 +5444,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -5553,10 +5553,10 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5863,7 +5863,7 @@
   <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A52" ySplit="51" xSplit="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8683,7 +8683,9 @@
         <v>17</v>
       </c>
       <c r="J96" s="10"/>
-      <c r="K96" s="5"/>
+      <c r="K96" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" hidden="1">
       <c r="A97" s="5">

--- a/smiles2peptides/project/core/amino_acids_library.xlsx
+++ b/smiles2peptides/project/core/amino_acids_library.xlsx
@@ -5863,7 +5863,7 @@
   <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A52" ySplit="51" xSplit="0"/>
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A193" ySplit="192" xSplit="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5881,7 +5881,7 @@
     <col min="11" max="11" style="20" width="16.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5945,7 +5945,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5974,7 +5974,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -6003,7 +6003,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -6032,7 +6032,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -6061,7 +6061,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -6090,7 +6090,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -6119,7 +6119,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -6148,7 +6148,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -6177,7 +6177,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -6206,7 +6206,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -6235,7 +6235,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -6264,7 +6264,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -6293,7 +6293,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -6322,7 +6322,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -6351,7 +6351,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -6380,7 +6380,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -6409,7 +6409,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -6438,7 +6438,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -6467,7 +6467,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -6496,7 +6496,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -6525,7 +6525,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -6554,7 +6554,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -6583,7 +6583,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -6612,7 +6612,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -6641,7 +6641,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -6670,7 +6670,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -6699,7 +6699,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -6728,7 +6728,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -6757,7 +6757,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -6786,7 +6786,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -6815,7 +6815,7 @@
       <c r="J32" s="10"/>
       <c r="K32" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -6844,7 +6844,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -6873,7 +6873,7 @@
       <c r="J34" s="10"/>
       <c r="K34" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -6902,7 +6902,7 @@
       <c r="J35" s="10"/>
       <c r="K35" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -6931,7 +6931,7 @@
       <c r="J36" s="10"/>
       <c r="K36" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -6960,7 +6960,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -6989,7 +6989,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -7018,7 +7018,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -7047,7 +7047,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -7076,7 +7076,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -7105,7 +7105,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -7134,7 +7134,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -7163,7 +7163,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -7192,7 +7192,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -7221,7 +7221,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -7250,7 +7250,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -7279,7 +7279,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -7308,7 +7308,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -7819,7 +7819,7 @@
       <c r="J66" s="10"/>
       <c r="K66" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -7848,7 +7848,7 @@
       <c r="J67" s="10"/>
       <c r="K67" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -7877,7 +7877,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -7906,7 +7906,7 @@
       <c r="J69" s="10"/>
       <c r="K69" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -7935,7 +7935,7 @@
       <c r="J70" s="10"/>
       <c r="K70" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -7964,7 +7964,7 @@
       <c r="J71" s="10"/>
       <c r="K71" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -7993,7 +7993,7 @@
       <c r="J72" s="10"/>
       <c r="K72" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -8022,7 +8022,7 @@
       <c r="J73" s="10"/>
       <c r="K73" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -8051,7 +8051,7 @@
       <c r="J74" s="10"/>
       <c r="K74" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -8080,7 +8080,7 @@
       <c r="J75" s="10"/>
       <c r="K75" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -8109,7 +8109,7 @@
       <c r="J76" s="10"/>
       <c r="K76" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="J77" s="10"/>
       <c r="K77" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -8167,7 +8167,7 @@
       <c r="J78" s="10"/>
       <c r="K78" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -8196,7 +8196,7 @@
       <c r="J79" s="10"/>
       <c r="K79" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -8225,7 +8225,7 @@
       <c r="J80" s="10"/>
       <c r="K80" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -8254,7 +8254,7 @@
       <c r="J81" s="10"/>
       <c r="K81" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -8339,7 +8339,7 @@
       <c r="J84" s="10"/>
       <c r="K84" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -8368,7 +8368,7 @@
       <c r="J85" s="10"/>
       <c r="K85" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -8397,7 +8397,7 @@
       <c r="J86" s="10"/>
       <c r="K86" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -8426,7 +8426,7 @@
       <c r="J87" s="10"/>
       <c r="K87" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -8455,7 +8455,7 @@
       <c r="J88" s="10"/>
       <c r="K88" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -8484,7 +8484,7 @@
       <c r="J89" s="10"/>
       <c r="K89" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -8513,7 +8513,7 @@
       <c r="J90" s="10"/>
       <c r="K90" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -8542,7 +8542,7 @@
       <c r="J91" s="10"/>
       <c r="K91" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -8571,7 +8571,7 @@
       <c r="J92" s="10"/>
       <c r="K92" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -8600,7 +8600,7 @@
       <c r="J93" s="10"/>
       <c r="K93" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -8629,7 +8629,7 @@
       <c r="J94" s="10"/>
       <c r="K94" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -8716,7 +8716,7 @@
       <c r="J97" s="10"/>
       <c r="K97" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -8745,7 +8745,7 @@
       <c r="J98" s="10"/>
       <c r="K98" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -8774,7 +8774,7 @@
       <c r="J99" s="10"/>
       <c r="K99" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -8803,7 +8803,7 @@
       <c r="J100" s="10"/>
       <c r="K100" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -8832,7 +8832,7 @@
       <c r="J101" s="10"/>
       <c r="K101" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -8861,7 +8861,7 @@
       <c r="J102" s="10"/>
       <c r="K102" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -8890,7 +8890,7 @@
       <c r="J103" s="10"/>
       <c r="K103" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -8919,7 +8919,7 @@
       <c r="J104" s="10"/>
       <c r="K104" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -8948,7 +8948,7 @@
       <c r="J105" s="10"/>
       <c r="K105" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -8979,7 +8979,7 @@
       <c r="J106" s="10"/>
       <c r="K106" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -9010,7 +9010,7 @@
       <c r="J107" s="10"/>
       <c r="K107" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -9041,7 +9041,7 @@
       <c r="J108" s="10"/>
       <c r="K108" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -9072,7 +9072,7 @@
       <c r="J109" s="10"/>
       <c r="K109" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -9103,7 +9103,7 @@
       <c r="J110" s="10"/>
       <c r="K110" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -9134,7 +9134,7 @@
       <c r="J111" s="10"/>
       <c r="K111" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -9165,7 +9165,7 @@
       <c r="J112" s="10"/>
       <c r="K112" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -9196,7 +9196,7 @@
       <c r="J113" s="14"/>
       <c r="K113" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -9227,7 +9227,7 @@
       <c r="J114" s="10"/>
       <c r="K114" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -9258,7 +9258,7 @@
       <c r="J115" s="10"/>
       <c r="K115" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -9289,7 +9289,7 @@
       <c r="J116" s="10"/>
       <c r="K116" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -9320,7 +9320,7 @@
       <c r="J117" s="10"/>
       <c r="K117" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -9351,7 +9351,7 @@
       <c r="J118" s="10"/>
       <c r="K118" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -9382,7 +9382,7 @@
       <c r="J119" s="10"/>
       <c r="K119" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -9413,7 +9413,7 @@
       <c r="J120" s="10"/>
       <c r="K120" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -9444,7 +9444,7 @@
       <c r="J121" s="10"/>
       <c r="K121" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -9475,7 +9475,7 @@
       <c r="J122" s="10"/>
       <c r="K122" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -9508,7 +9508,7 @@
       </c>
       <c r="K123" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -9539,7 +9539,7 @@
       <c r="J124" s="10"/>
       <c r="K124" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -9572,7 +9572,7 @@
       </c>
       <c r="K125" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -9673,7 +9673,7 @@
       <c r="J128" s="10"/>
       <c r="K128" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="K129" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
@@ -9754,7 +9754,7 @@
       <c r="J131" s="10"/>
       <c r="K131" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
@@ -9767,7 +9767,7 @@
       <c r="J132" s="10"/>
       <c r="K132" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
@@ -9780,7 +9780,7 @@
       <c r="J133" s="10"/>
       <c r="K133" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
@@ -9793,7 +9793,7 @@
       <c r="J134" s="10"/>
       <c r="K134" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
@@ -9806,7 +9806,7 @@
       <c r="J135" s="10"/>
       <c r="K135" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="5"/>
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
@@ -9819,7 +9819,7 @@
       <c r="J136" s="10"/>
       <c r="K136" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="5"/>
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
@@ -9832,7 +9832,7 @@
       <c r="J137" s="10"/>
       <c r="K137" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="5"/>
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
@@ -9845,7 +9845,7 @@
       <c r="J138" s="10"/>
       <c r="K138" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="5"/>
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
@@ -9858,7 +9858,7 @@
       <c r="J139" s="10"/>
       <c r="K139" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
@@ -9871,7 +9871,7 @@
       <c r="J140" s="10"/>
       <c r="K140" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
@@ -9884,7 +9884,7 @@
       <c r="J141" s="10"/>
       <c r="K141" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
@@ -9897,7 +9897,7 @@
       <c r="J142" s="10"/>
       <c r="K142" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
@@ -9910,7 +9910,7 @@
       <c r="J143" s="10"/>
       <c r="K143" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="5"/>
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
@@ -9923,7 +9923,7 @@
       <c r="J144" s="10"/>
       <c r="K144" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
       <c r="C145" s="7"/>
@@ -9936,7 +9936,7 @@
       <c r="J145" s="10"/>
       <c r="K145" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="5"/>
       <c r="B146" s="6"/>
       <c r="C146" s="7"/>
@@ -9949,7 +9949,7 @@
       <c r="J146" s="10"/>
       <c r="K146" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="5"/>
       <c r="B147" s="6"/>
       <c r="C147" s="7"/>
@@ -9962,7 +9962,7 @@
       <c r="J147" s="10"/>
       <c r="K147" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="5"/>
       <c r="B148" s="6"/>
       <c r="C148" s="7"/>
@@ -9975,7 +9975,7 @@
       <c r="J148" s="10"/>
       <c r="K148" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
       <c r="C149" s="7"/>
@@ -9988,7 +9988,7 @@
       <c r="J149" s="10"/>
       <c r="K149" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="5"/>
       <c r="B150" s="6"/>
       <c r="C150" s="7"/>

--- a/smiles2peptides/project/core/amino_acids_library.xlsx
+++ b/smiles2peptides/project/core/amino_acids_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielgarzonotero/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A44E41-4B25-5140-AE91-065384B9B4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB553CF8-D98C-3446-AC13-5F1A66F8E4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="129">
+  <futureMetadata name="XLRICHVALUE" count="134">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -947,8 +947,43 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="129"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="130"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="131"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="132"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="133"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="129">
+  <valueMetadata count="134">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -1335,13 +1370,28 @@
     </bk>
     <bk>
       <rc t="1" v="128"/>
+    </bk>
+    <bk>
+      <rc t="1" v="129"/>
+    </bk>
+    <bk>
+      <rc t="1" v="130"/>
+    </bk>
+    <bk>
+      <rc t="1" v="131"/>
+    </bk>
+    <bk>
+      <rc t="1" v="132"/>
+    </bk>
+    <bk>
+      <rc t="1" v="133"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="524">
   <si>
     <t>#</t>
   </si>
@@ -6416,15 +6466,214 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>{ac-P}</t>
+  </si>
+  <si>
+    <t>68-95-1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[N:1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(C(=O)C)1CCC[C@H]1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[C:2](=O)O</t>
+    </r>
+  </si>
+  <si>
+    <t>{gly-P}</t>
+  </si>
+  <si>
+    <t>N-Acetyl-L-Proline</t>
+  </si>
+  <si>
+    <t>Glycyl-L-Proline</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[N:1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(C(=O)CN)1CCC[C@H]1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[C:2](=O)O</t>
+    </r>
+  </si>
+  <si>
+    <t>704-15-4</t>
+  </si>
+  <si>
+    <t>N-PEG4-L-Proline</t>
+  </si>
+  <si>
+    <t>{PEG4-P}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[N:1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(CCOCCOCCOCCOC(=O)O)1CCC[C@H]1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[C:2](=O)O</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[NH1:1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1CCC[C@H]1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[C:2](=O)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+  </si>
+  <si>
+    <t>{P-am}</t>
+  </si>
+  <si>
+    <t>L-Prolinamide</t>
+  </si>
+  <si>
+    <t>7531-52-4</t>
+  </si>
+  <si>
+    <t>N-Acetyl-L-tryptophan</t>
+  </si>
+  <si>
+    <t>{ac-W}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[NH1:1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(C(=O)C)[C@@H](Cc1c[nH]c2ccccc12)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[C:2](=O)O</t>
+    </r>
+  </si>
+  <si>
+    <t>1218-34-4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -6537,41 +6786,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6583,46 +6841,49 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6682,7 +6943,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="129">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="134">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -7197,6 +7458,26 @@
   </rv>
   <rv s="0">
     <v>128</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>129</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>130</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>131</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>132</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>133</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -7342,6 +7623,11 @@
   <rel r:id="rId127"/>
   <rel r:id="rId128"/>
   <rel r:id="rId129"/>
+  <rel r:id="rId130"/>
+  <rel r:id="rId131"/>
+  <rel r:id="rId132"/>
+  <rel r:id="rId133"/>
+  <rel r:id="rId134"/>
 </richValueRels>
 </file>
 
@@ -7645,8 +7931,8 @@
   <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H133" sqref="H133"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A109:XFD130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11502,30 +11788,174 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="2"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="2"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="2"/>
-    </row>
-    <row r="133" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="2"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="2"/>
-    </row>
-    <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="2"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="2"/>
-    </row>
-    <row r="135" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="2"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="2"/>
+    <row r="131" spans="1:11" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D131" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="E131" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="F131" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="H131" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="I131" s="2" t="e" vm="130">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J131" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="K131" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D132" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="E132" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="F132" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="H132" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="I132" s="2" t="e" vm="131">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J132" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="K132" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D133" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="E133" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="F133" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="H133" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="I133" s="2" t="e" vm="132">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J133" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="K133" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D134" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E134" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="F134" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" s="31" t="s">
+        <v>516</v>
+      </c>
+      <c r="H134" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="I134" s="2" t="e" vm="133">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J134" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="K134" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D135" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="E135" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="F135" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="H135" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="I135" s="2" t="e" vm="134">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="136" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
